--- a/candidate_pool/default_solv_candidate_water_mis_no_dmf.xlsx
+++ b/candidate_pool/default_solv_candidate_water_mis_no_dmf.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -642,6 +642,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002963E37866ED33418AA3C2E7C2CBC48C" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="722427c93779db870d9b88208615f41a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3daf175e-d399-4f27-8e26-d8d48fd6e34f" xmlns:ns3="811be916-0eb4-48a2-b739-bdd7ef3c3bb9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a852b18fc1bf161a89c57f3c04037867" ns2:_="" ns3:_="">
     <xsd:import namespace="3daf175e-d399-4f27-8e26-d8d48fd6e34f"/>
@@ -852,22 +867,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCC6C4B-3617-4EB2-A0A6-328E290B3C20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{440AC86F-A7D9-4E52-9514-D7770551CDF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C86B4E36-C5CD-4621-AE12-D0AE4890F71B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -884,21 +901,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{440AC86F-A7D9-4E52-9514-D7770551CDF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCC6C4B-3617-4EB2-A0A6-328E290B3C20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>